--- a/Stock-analyst/steel_self_trading.xlsx
+++ b/Stock-analyst/steel_self_trading.xlsx
@@ -10,9 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HPG" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HSG" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLH" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMC" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POM" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -49194,947 +49191,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>KLcpMua</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>KlcpBan</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GtMua</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GtBan</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>26000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>31000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>113000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>63000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45800</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>99</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>518000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>55000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>298730000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>769000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>840000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>850000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45162</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>819000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>200</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1618000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>913000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.050000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TLH</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10206000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>KLcpMua</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>KlcpBan</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GtMua</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GtBan</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>398000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45915</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27300000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>74000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>97000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>77000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1256500000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45519</v>
-      </c>
-      <c r="C9" t="n">
-        <v>120000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1207356000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>55000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>574530000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45513</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>573600000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45086</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1305000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>995000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9.949999999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>400</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3840000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.58</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SMC</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>700</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7350000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>KLcpMua</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>KlcpBan</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GtMua</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GtBan</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>POM</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45217</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>513000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>POM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45134</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>782000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>POM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1968000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>